--- a/billions_time_series.xlsx
+++ b/billions_time_series.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="time-series-US" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t xml:space="preserve">United States Billion-Dollar Disasters By Year (CPI-Adjusted)</t>
   </si>
@@ -199,6 +199,27 @@
   </si>
   <si>
     <t xml:space="preserve">Winter Storm Upper 95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Drought Count”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Flooding Count”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Freeze Count”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Severe Storm Count”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T”ropical Cyclone Count”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Wildfire Count”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Winter Storm Count”</t>
   </si>
   <si>
     <t xml:space="preserve">Combined Cost</t>
@@ -216,6 +237,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -299,7 +321,7 @@
   </sheetPr>
   <dimension ref="A1:BE43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AY1" activeCellId="0" sqref="AY1"/>
     </sheetView>
   </sheetViews>
@@ -311,19 +333,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="12" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="12" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="20" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="20" style="0" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="16.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="28" style="0" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="28" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="19.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="36" style="0" width="22.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="44" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="44" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="52" style="0" width="19.91"/>
@@ -4329,10 +4351,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4350,140 +4372,293 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>51</v>
+      <c r="A3" s="0" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -4498,26 +4673,44 @@
         <v>1</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -4530,28 +4723,49 @@
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -4563,12 +4777,18 @@
         <v>1</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
@@ -4583,29 +4803,44 @@
         <v>1</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1</v>
@@ -4614,26 +4849,50 @@
         <v>1</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1</v>
@@ -4642,21 +4901,24 @@
         <v>1</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -4665,15 +4927,24 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
@@ -4682,46 +4953,79 @@
         <v>1</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
@@ -4730,54 +5034,99 @@
         <v>1</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C27" s="0" t="n">
-        <v>1</v>
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
@@ -4786,151 +5135,232 @@
         <v>1</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1</v>
@@ -4939,105 +5369,77 @@
         <v>1</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E40" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="F40" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5063,7 +5465,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.81"/>
@@ -5106,7 +5508,7 @@
         <v>52</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5922,7 +6324,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
